--- a/seedtable-test/test-resources/seedtable_example.xlsx
+++ b/seedtable-test/test-resources/seedtable_example.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18214"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="165" documentId="5_{A0BC357F-6048-4E5D-8E80-A36B7C0C1B7B}" xr6:coauthVersionLast="19" xr6:coauthVersionMax="19" xr10:uidLastSave="{01AA5ED8-4161-423C-94FC-CD2E55BEBEF3}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato_takahito/projects/seedtable/seedtable-test/test-resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="foos" sheetId="6" r:id="rId1"/>
@@ -14,13 +18,22 @@
     <sheet name="calc_ids" sheetId="4" r:id="rId4"/>
     <sheet name="yamls" sheetId="1" r:id="rId5"/>
     <sheet name="datetimes" sheetId="5" r:id="rId6"/>
+    <sheet name="multilines" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -116,19 +129,66 @@
   </si>
   <si>
     <t>2015-01-01T01:00:08</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+line2
+line3
+line5
+line8
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>line1
+line2
+line4
+line7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>line1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>line1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>line1
+line2</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,12 +214,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -463,16 +526,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB02B5FE-5B45-4966-8E97-895D1391D882}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{D0710695-C71A-5367-A52E-5CBA3BDE3587}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -480,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -489,7 +552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -498,7 +561,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -507,7 +570,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -516,7 +579,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -525,7 +588,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -534,7 +597,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -543,7 +606,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -552,7 +615,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -561,7 +624,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -570,7 +633,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -579,7 +642,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -588,7 +651,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -597,7 +660,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -606,7 +669,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -615,7 +678,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -624,7 +687,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -633,7 +696,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -642,7 +705,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -651,7 +714,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -660,7 +723,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -669,7 +732,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -678,7 +741,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -687,7 +750,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -696,7 +759,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -705,7 +768,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
@@ -715,21 +778,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D45153-B4B3-4467-96E2-0D1EF1057859}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{82CB4A33-F370-5687-BE9B-AF2200EF2614}">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -743,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -759,7 +823,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10008</v>
       </c>
@@ -775,7 +839,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10015</v>
       </c>
@@ -791,7 +855,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10022</v>
       </c>
@@ -807,7 +871,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10029</v>
       </c>
@@ -823,7 +887,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10036</v>
       </c>
@@ -839,7 +903,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10043</v>
       </c>
@@ -855,7 +919,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10050</v>
       </c>
@@ -871,7 +935,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10057</v>
       </c>
@@ -887,7 +951,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10064</v>
       </c>
@@ -903,7 +967,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10071</v>
       </c>
@@ -919,7 +983,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10078</v>
       </c>
@@ -935,7 +999,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10085</v>
       </c>
@@ -951,7 +1015,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>10092</v>
       </c>
@@ -967,7 +1031,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>10099</v>
       </c>
@@ -983,7 +1047,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>10106</v>
       </c>
@@ -999,7 +1063,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>10113</v>
       </c>
@@ -1015,7 +1079,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>10120</v>
       </c>
@@ -1031,7 +1095,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>10127</v>
       </c>
@@ -1047,7 +1111,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>10134</v>
       </c>
@@ -1063,7 +1127,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>10141</v>
       </c>
@@ -1079,7 +1143,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>10148</v>
       </c>
@@ -1095,7 +1159,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>10155</v>
       </c>
@@ -1111,7 +1175,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>10162</v>
       </c>
@@ -1127,7 +1191,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>10169</v>
       </c>
@@ -1143,7 +1207,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>10176</v>
       </c>
@@ -1159,7 +1223,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>10183</v>
       </c>
@@ -1175,7 +1239,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>10190</v>
       </c>
@@ -1191,7 +1255,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>10197</v>
       </c>
@@ -1207,7 +1271,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>10204</v>
       </c>
@@ -1223,7 +1287,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>10211</v>
       </c>
@@ -1239,7 +1303,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>10218</v>
       </c>
@@ -1256,21 +1320,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00686E0C-94DD-4903-95A0-3FE7CB715405}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{B3D82B62-69FB-596C-96BE-8509F742AE2F}">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1300,7 +1365,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1316,7 +1381,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1332,7 +1397,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1348,7 +1413,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1364,7 +1429,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1380,7 +1445,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1396,7 +1461,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1412,7 +1477,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1428,7 +1493,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1444,7 +1509,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1460,7 +1525,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1476,7 +1541,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1492,7 +1557,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1508,7 +1573,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1524,7 +1589,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1540,7 +1605,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1556,7 +1621,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1572,7 +1637,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1588,7 +1653,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1604,7 +1669,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1620,7 +1685,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1636,7 +1701,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1652,7 +1717,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1668,7 +1733,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1684,7 +1749,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1700,7 +1765,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1716,7 +1781,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1732,7 +1797,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1748,7 +1813,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1764,7 +1829,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1780,7 +1845,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1797,21 +1862,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C7504-F04E-4C42-BE7E-942CC729D9EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{0718FDED-BCA8-5516-A665-2CB4AE429EAA}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <f>B3*10</f>
         <v>10</v>
@@ -1828,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="0">B4*10</f>
         <v>20</v>
@@ -1837,7 +1903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1846,7 +1912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1855,7 +1921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1864,7 +1930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1873,7 +1939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -1882,7 +1948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -1892,21 +1958,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1917,7 +1984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1928,7 +1995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1939,7 +2006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1950,7 +2017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1961,7 +2028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1972,7 +2039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1984,27 +2051,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC8C976-B5F5-478C-A9AD-5D9F6B6283D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{FFA00BB0-C9AE-5C35-A706-73A0110990FE}">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2024,7 +2092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2044,7 +2112,7 @@
         <v>42005.458483796298</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2064,7 +2132,7 @@
         <v>42006.458483796298</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2084,7 +2152,7 @@
         <v>42007.458483796298</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2104,7 +2172,7 @@
         <v>42008.458483796298</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2124,7 +2192,7 @@
         <v>42009.458483796298</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2144,7 +2212,7 @@
         <v>42010.458483796298</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2164,7 +2232,7 @@
         <v>42011.458483796298</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2184,7 +2252,7 @@
         <v>42012.458483796298</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2205,6 +2273,67 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="126" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/seedtable-test/test-resources/seedtable_example.xlsx
+++ b/seedtable-test/test-resources/seedtable_example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="foos" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="yamls" sheetId="1" r:id="rId5"/>
     <sheet name="datetimes" sheetId="5" r:id="rId6"/>
     <sheet name="multilines" sheetId="7" r:id="rId7"/>
+    <sheet name="multiline_refs" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -169,6 +170,14 @@
   <si>
     <t>line1
 line2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2282,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2336,4 +2345,55 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f>VLOOKUP(A3,multilines!$A$3:$C$999,3)</f>
+        <v>line1_x000D_line2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="98" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f>VLOOKUP(A4,multilines!$A$3:$C$999,3)</f>
+        <v>line1_x000D_line2_x000D__x000D_line4_x000D__x000D__x000D_line7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="126" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f>VLOOKUP(A5,multilines!$A$3:$C$999,3)</f>
+        <v>_x000D_line2_x000D_line3_x000D__x000D_line5_x000D__x000D__x000D_line8_x000D_</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>